--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2531719.294831235</v>
+        <v>-2534640.539815488</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.85021071789755</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>34.88448735196299</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="H5" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>23.85021071789563</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.72625645960901</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="F6" t="n">
-        <v>34.88448735196299</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>34.88448735196299</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>34.88448735196299</v>
+        <v>30.72625645960707</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.88448735196299</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>30.72625645960707</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="S7" t="n">
-        <v>30.72625645960901</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>34.88448735196299</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
     </row>
     <row r="8">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>92.66494928910228</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>39.04780860145888</v>
       </c>
       <c r="S9" t="n">
-        <v>42.57147873238238</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>42.57147873238235</v>
       </c>
       <c r="V9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1306,11 +1306,11 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -1336,14 +1336,14 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>81.61928733384126</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.66494928910228</v>
+        <v>81.61928733384124</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>178.7060423383812</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F11" t="n">
-        <v>237.7784536086341</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292612</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396203</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589021</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>57.65292080638941</v>
       </c>
       <c r="C13" t="n">
         <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>69.42642470280394</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983826</v>
+        <v>96.35242040983823</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004749</v>
+        <v>88.93215267004747</v>
       </c>
       <c r="S13" t="n">
         <v>189.769025331442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520949</v>
@@ -1607,25 +1607,25 @@
         <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>197.2015488209267</v>
       </c>
       <c r="D14" t="n">
         <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769638</v>
+        <v>410.1644063769639</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605506</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516583</v>
+        <v>91.9303487751658</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067864</v>
@@ -1664,16 +1664,16 @@
         <v>250.9345864167829</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X14" t="n">
-        <v>264.0488580988305</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>102.2453692453962</v>
       </c>
       <c r="C16" t="n">
         <v>167.246821098628</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032423</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965138</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674419</v>
+        <v>86.13649374674418</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442984</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946974</v>
       </c>
       <c r="T16" t="n">
-        <v>218.0974723923561</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1933087134793</v>
       </c>
       <c r="V16" t="n">
-        <v>109.9714680035116</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1847,19 @@
         <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E17" t="n">
         <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545735</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453025</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112668</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684692</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.320167720048</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G20" t="n">
         <v>378.5542040247499</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947551</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>317.6307663651992</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y20" t="n">
         <v>354.6277363038398</v>
@@ -2239,7 +2239,7 @@
         <v>148.2217778297235</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464141</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659986</v>
@@ -2248,7 +2248,7 @@
         <v>114.8237602943554</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707175</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510283</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453026</v>
+        <v>54.52629139453025</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221592</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424835</v>
@@ -2302,7 +2302,7 @@
         <v>254.9127959843772</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368234</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
         <v>186.974450999881</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295188</v>
+        <v>60.32014642295192</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545725</v>
@@ -2488,13 +2488,13 @@
         <v>113.8108456707175</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453026</v>
+        <v>54.52629139453029</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221592</v>
+        <v>42.04747230221595</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424835</v>
@@ -2533,10 +2533,10 @@
         <v>254.5831063612653</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716143</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843773</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368234</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453014</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453014</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112668</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684692</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.320167720048</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295188</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262564</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464141</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707175</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510283</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453026</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221592</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368234</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3275,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247512</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
         <v>255.2416659947559</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3323,16 +3323,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T37" t="n">
         <v>186.4872700401421</v>
@@ -3487,7 +3487,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998809</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947573</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295265</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3664,22 +3664,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
         <v>186.4872700401421</v>
@@ -3724,7 +3724,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998809</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3803,10 +3803,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262564</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.62773630384</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H42" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200494</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4198,10 +4198,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>139.537949407852</v>
+        <v>80.20997155950337</v>
       </c>
       <c r="C5" t="n">
-        <v>139.537949407852</v>
+        <v>80.20997155950337</v>
       </c>
       <c r="D5" t="n">
-        <v>115.4468274705817</v>
+        <v>80.20997155950337</v>
       </c>
       <c r="E5" t="n">
-        <v>80.20997155950796</v>
+        <v>80.20997155950337</v>
       </c>
       <c r="F5" t="n">
-        <v>73.26447081030449</v>
+        <v>73.2644708102999</v>
       </c>
       <c r="G5" t="n">
-        <v>38.02761489923076</v>
+        <v>38.02761489922838</v>
       </c>
       <c r="H5" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="I5" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="J5" t="n">
-        <v>2.790758988157039</v>
+        <v>9.194968458488169</v>
       </c>
       <c r="K5" t="n">
-        <v>2.790758988157039</v>
+        <v>43.73061093692936</v>
       </c>
       <c r="L5" t="n">
-        <v>37.32640146660039</v>
+        <v>46.30652887678426</v>
       </c>
       <c r="M5" t="n">
-        <v>71.86204394504375</v>
+        <v>80.84217135522545</v>
       </c>
       <c r="N5" t="n">
-        <v>106.3976864234871</v>
+        <v>115.3778138336666</v>
       </c>
       <c r="O5" t="n">
-        <v>130.5578219976657</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="P5" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="R5" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="S5" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="T5" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="U5" t="n">
-        <v>139.537949407852</v>
+        <v>104.3010934967717</v>
       </c>
       <c r="V5" t="n">
-        <v>139.537949407852</v>
+        <v>104.3010934967717</v>
       </c>
       <c r="W5" t="n">
-        <v>139.537949407852</v>
+        <v>80.20997155950337</v>
       </c>
       <c r="X5" t="n">
-        <v>139.537949407852</v>
+        <v>80.20997155950337</v>
       </c>
       <c r="Y5" t="n">
-        <v>139.537949407852</v>
+        <v>80.20997155950337</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.26447081030449</v>
+        <v>38.02761489922838</v>
       </c>
       <c r="C6" t="n">
-        <v>73.26447081030449</v>
+        <v>38.02761489922838</v>
       </c>
       <c r="D6" t="n">
-        <v>73.26447081030449</v>
+        <v>38.02761489922838</v>
       </c>
       <c r="E6" t="n">
-        <v>73.26447081030449</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="F6" t="n">
-        <v>38.02761489923076</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="G6" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="H6" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="I6" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="J6" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="L6" t="n">
-        <v>37.32640146660039</v>
+        <v>37.32640146659806</v>
       </c>
       <c r="M6" t="n">
-        <v>71.86204394504375</v>
+        <v>71.86204394503925</v>
       </c>
       <c r="N6" t="n">
-        <v>84.85157275822644</v>
+        <v>84.85157275822108</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366698</v>
+        <v>119.3872152366623</v>
       </c>
       <c r="P6" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="R6" t="n">
-        <v>139.537949407852</v>
+        <v>104.3010934967717</v>
       </c>
       <c r="S6" t="n">
-        <v>139.537949407852</v>
+        <v>104.3010934967717</v>
       </c>
       <c r="T6" t="n">
-        <v>139.537949407852</v>
+        <v>104.3010934967717</v>
       </c>
       <c r="U6" t="n">
-        <v>104.3010934967782</v>
+        <v>73.2644708102999</v>
       </c>
       <c r="V6" t="n">
-        <v>104.3010934967782</v>
+        <v>73.2644708102999</v>
       </c>
       <c r="W6" t="n">
-        <v>104.3010934967782</v>
+        <v>73.2644708102999</v>
       </c>
       <c r="X6" t="n">
-        <v>104.3010934967782</v>
+        <v>73.2644708102999</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.3010934967782</v>
+        <v>73.2644708102999</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.790758988157039</v>
+        <v>33.82738167462865</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790758988157039</v>
+        <v>33.82738167462865</v>
       </c>
       <c r="D7" t="n">
-        <v>2.790758988157039</v>
+        <v>33.82738167462865</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988157039</v>
+        <v>33.82738167462865</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988157039</v>
+        <v>33.82738167462865</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988157039</v>
+        <v>33.82738167462865</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="K7" t="n">
-        <v>2.790758988157039</v>
+        <v>2.790758988156864</v>
       </c>
       <c r="L7" t="n">
-        <v>37.32640146660039</v>
+        <v>37.32640146659806</v>
       </c>
       <c r="M7" t="n">
-        <v>70.46666445096525</v>
+        <v>71.86204394503925</v>
       </c>
       <c r="N7" t="n">
-        <v>105.0023069294086</v>
+        <v>106.3976864234804</v>
       </c>
       <c r="O7" t="n">
-        <v>139.537949407852</v>
+        <v>106.3976864234804</v>
       </c>
       <c r="P7" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="Q7" t="n">
-        <v>139.537949407852</v>
+        <v>139.5379494078432</v>
       </c>
       <c r="R7" t="n">
-        <v>139.537949407852</v>
+        <v>104.3010934967717</v>
       </c>
       <c r="S7" t="n">
-        <v>108.5013267213782</v>
+        <v>69.06423758570017</v>
       </c>
       <c r="T7" t="n">
-        <v>108.5013267213782</v>
+        <v>69.06423758570017</v>
       </c>
       <c r="U7" t="n">
-        <v>108.5013267213782</v>
+        <v>69.06423758570017</v>
       </c>
       <c r="V7" t="n">
-        <v>108.5013267213782</v>
+        <v>69.06423758570017</v>
       </c>
       <c r="W7" t="n">
-        <v>108.5013267213782</v>
+        <v>69.06423758570017</v>
       </c>
       <c r="X7" t="n">
-        <v>73.26447081030449</v>
+        <v>69.06423758570017</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.02761489923076</v>
+        <v>33.82738167462865</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="C8" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="D8" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="E8" t="n">
-        <v>183.4578794006469</v>
+        <v>89.8569205227658</v>
       </c>
       <c r="F8" t="n">
-        <v>114.6133209064899</v>
+        <v>21.01236202860883</v>
       </c>
       <c r="G8" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H8" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I8" t="n">
         <v>7.413195943128183</v>
@@ -4805,13 +4805,13 @@
         <v>7.413195943128183</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821463</v>
+        <v>21.18357364821455</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940386</v>
+        <v>75.16870670940378</v>
       </c>
       <c r="M8" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056151</v>
       </c>
       <c r="N8" t="n">
         <v>258.6453063018263</v>
@@ -4841,13 +4841,13 @@
         <v>277.058838278528</v>
       </c>
       <c r="W8" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="X8" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>194.6151136988904</v>
+      </c>
+      <c r="C9" t="n">
         <v>101.0141548210093</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.413195943128183</v>
       </c>
       <c r="D9" t="n">
         <v>7.413195943128183</v>
@@ -4893,7 +4893,7 @@
         <v>194.436577061108</v>
       </c>
       <c r="N9" t="n">
-        <v>286.1748768573193</v>
+        <v>226.5580308522527</v>
       </c>
       <c r="O9" t="n">
         <v>317.2247932514008</v>
@@ -4908,25 +4908,25 @@
         <v>331.2175662458446</v>
       </c>
       <c r="S9" t="n">
-        <v>288.2160725767715</v>
+        <v>237.6166073679635</v>
       </c>
       <c r="T9" t="n">
-        <v>288.2160725767715</v>
+        <v>237.6166073679635</v>
       </c>
       <c r="U9" t="n">
-        <v>288.2160725767715</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="V9" t="n">
         <v>194.6151136988904</v>
       </c>
       <c r="W9" t="n">
-        <v>101.0141548210093</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="X9" t="n">
-        <v>101.0141548210093</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="Y9" t="n">
-        <v>101.0141548210093</v>
+        <v>194.6151136988904</v>
       </c>
     </row>
     <row r="10">
@@ -4954,7 +4954,7 @@
         <v>101.0141548210093</v>
       </c>
       <c r="H10" t="n">
-        <v>7.413195943128183</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="I10" t="n">
         <v>7.413195943128183</v>
@@ -4963,19 +4963,19 @@
         <v>7.413195943128183</v>
       </c>
       <c r="K10" t="n">
-        <v>7.413195943128183</v>
+        <v>80.27683974481521</v>
       </c>
       <c r="L10" t="n">
-        <v>99.15149573933944</v>
+        <v>172.0151395410265</v>
       </c>
       <c r="M10" t="n">
-        <v>190.8897955355507</v>
+        <v>172.0151395410265</v>
       </c>
       <c r="N10" t="n">
-        <v>190.8897955355507</v>
+        <v>187.1831975639866</v>
       </c>
       <c r="O10" t="n">
-        <v>282.6280953317619</v>
+        <v>278.9214973601979</v>
       </c>
       <c r="P10" t="n">
         <v>370.6597971564091</v>
@@ -4984,25 +4984,25 @@
         <v>370.6597971564091</v>
       </c>
       <c r="R10" t="n">
-        <v>370.6597971564091</v>
+        <v>277.058838278528</v>
       </c>
       <c r="S10" t="n">
         <v>277.058838278528</v>
       </c>
       <c r="T10" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="U10" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="V10" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="W10" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="X10" t="n">
-        <v>194.6151136988904</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="Y10" t="n">
         <v>101.0141548210093</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.06112435253</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C11" t="n">
-        <v>1032.06112435253</v>
+        <v>1678.621321342321</v>
       </c>
       <c r="D11" t="n">
-        <v>1032.06112435253</v>
+        <v>1320.355622735571</v>
       </c>
       <c r="E11" t="n">
-        <v>646.2728717542852</v>
+        <v>934.5673701373263</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839477</v>
+        <v>523.5814653477186</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839477</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927149</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392463</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416651</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2355044562275</v>
+        <v>627.577017622049</v>
       </c>
       <c r="C13" t="n">
-        <v>530.2993215283204</v>
+        <v>458.640834694142</v>
       </c>
       <c r="D13" t="n">
-        <v>380.1826821159846</v>
+        <v>458.640834694142</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959806</v>
+        <v>310.7277411117487</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959806</v>
+        <v>163.8377936138382</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959806</v>
+        <v>163.8377936138382</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138382</v>
@@ -5200,49 +5200,49 @@
         <v>111.6347488791188</v>
       </c>
       <c r="K13" t="n">
-        <v>315.621931827995</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L13" t="n">
-        <v>632.181730276491</v>
+        <v>632.1817302764911</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760398</v>
+        <v>976.3387758760399</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581904</v>
+        <v>1317.747152581898</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502317</v>
+        <v>1617.076751502311</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.68425193597</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088491</v>
+        <v>1927.294548088485</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846019</v>
+        <v>1837.464090846013</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672845</v>
+        <v>1645.778206672839</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672845</v>
+        <v>1424.011591242365</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672845</v>
+        <v>1424.011591242365</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.093718466958</v>
+        <v>1424.011591242365</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.676548429998</v>
+        <v>1134.594421205404</v>
       </c>
       <c r="X13" t="n">
-        <v>1101.676548429998</v>
+        <v>906.6048703073867</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.8839692864674</v>
+        <v>685.8122911638565</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758604</v>
+        <v>1866.026662509058</v>
       </c>
       <c r="C14" t="n">
-        <v>1956.582540818192</v>
+        <v>1666.833178851556</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211442</v>
+        <v>1308.567480244806</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>922.7792276465613</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235898</v>
+        <v>511.7933228569535</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347374</v>
+        <v>97.48584166810113</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810116</v>
+        <v>97.48584166810113</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233288</v>
@@ -5297,31 +5297,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599079</v>
+        <v>4156.16151059908</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632627</v>
+        <v>3953.532414632628</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423756</v>
+        <v>3700.063135423757</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080185</v>
+        <v>3369.000248080186</v>
       </c>
       <c r="W14" t="n">
-        <v>3369.000248080185</v>
+        <v>3016.231592810072</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798538</v>
+        <v>2642.765834548992</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822726</v>
+        <v>2252.62650257318</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J15" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334506</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277781</v>
+        <v>538.7790385694439</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.315654538068</v>
+        <v>1059.517353866459</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.694692760353</v>
+        <v>1637.372701792862</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>2143.777656741112</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>949.4789535305811</v>
+        <v>929.0092031464285</v>
       </c>
       <c r="C16" t="n">
-        <v>780.542770602674</v>
+        <v>760.0730202185215</v>
       </c>
       <c r="D16" t="n">
-        <v>630.4261311903381</v>
+        <v>609.9563808061856</v>
       </c>
       <c r="E16" t="n">
-        <v>482.5130376079448</v>
+        <v>462.0432872237924</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079448</v>
+        <v>315.1533397258819</v>
       </c>
       <c r="G16" t="n">
         <v>315.1533397258819</v>
@@ -5431,7 +5431,7 @@
         <v>171.9869683152619</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755866</v>
@@ -5440,7 +5440,7 @@
         <v>396.9405013869775</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042031</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
@@ -5458,28 +5458,28 @@
         <v>2279.16862496767</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.766933397539</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685724</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521728</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="U16" t="n">
-        <v>1798.760544521728</v>
+        <v>1804.378563040219</v>
       </c>
       <c r="V16" t="n">
-        <v>1687.67825360909</v>
+        <v>1549.694074834332</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.261083572129</v>
+        <v>1260.276904797372</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.271532674111</v>
+        <v>1032.287353899354</v>
       </c>
       <c r="Y16" t="n">
-        <v>949.4789535305811</v>
+        <v>1032.287353899354</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511626</v>
@@ -5543,22 +5543,22 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511626</v>
+        <v>235.0538732027188</v>
       </c>
       <c r="L18" t="n">
-        <v>538.7790385694437</v>
+        <v>688.8525027970462</v>
       </c>
       <c r="M18" t="n">
-        <v>1087.697503179733</v>
+        <v>1237.770967407336</v>
       </c>
       <c r="N18" t="n">
-        <v>1665.552851106136</v>
+        <v>1815.626315333738</v>
       </c>
       <c r="O18" t="n">
-        <v>2171.957806054386</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443643</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902818</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040896</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354976</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313939</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028691</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597208</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352545</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162831</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511626</v>
@@ -5753,13 +5753,13 @@
         <v>337.4933016076843</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889756</v>
@@ -5780,7 +5780,7 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U20" t="n">
         <v>3795.851627400163</v>
@@ -5795,7 +5795,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>84.98040897511626</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511626</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L21" t="n">
-        <v>538.7790385694437</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="M21" t="n">
-        <v>1087.697503179733</v>
+        <v>936.9399229352701</v>
       </c>
       <c r="N21" t="n">
-        <v>1665.552851106136</v>
+        <v>1514.795270861673</v>
       </c>
       <c r="O21" t="n">
-        <v>2168.542634771632</v>
+        <v>2021.200225809923</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2408.301781362079</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5911,22 +5911,22 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902818</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040896</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354976</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313939</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028691</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597208</v>
@@ -5941,7 +5941,7 @@
         <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357085</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
         <v>342.800273616284</v>
@@ -5990,13 +5990,13 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
         <v>2681.771598889756</v>
@@ -6017,10 +6017,10 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
         <v>3496.718237382061</v>
@@ -6029,7 +6029,7 @@
         <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
         <v>2476.132983851461</v>
@@ -6072,19 +6072,19 @@
         <v>519.5985603334506</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277781</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538068</v>
+        <v>1068.51702494374</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.17100246447</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O24" t="n">
-        <v>2100.17100246447</v>
+        <v>2152.777327818393</v>
       </c>
       <c r="P24" t="n">
-        <v>2487.272558016626</v>
+        <v>2539.878883370548</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502114</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477726</v>
+        <v>735.855734147773</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609057</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039808</v>
+        <v>501.684995803981</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897933</v>
@@ -6151,19 +6151,19 @@
         <v>459.528702044361</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040897</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354976</v>
+        <v>1709.719201354977</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313939</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028691</v>
+        <v>2392.455631028692</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597208</v>
@@ -6175,7 +6175,7 @@
         <v>2333.272818966198</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127671</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237504</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073044</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6224,52 +6224,52 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I27" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277778</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N27" t="n">
-        <v>2100.171002464469</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O27" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D28" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
@@ -6382,19 +6382,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313936</v>
@@ -6446,22 +6446,22 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076838</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
         <v>766.6831886951452</v>
@@ -6473,40 +6473,40 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511625</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448904</v>
+        <v>688.8525027970462</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551798</v>
+        <v>1237.770967407336</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>1815.626315333738</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="P30" t="n">
         <v>2322.031270281988</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C31" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F31" t="n">
         <v>386.7245456315386</v>
@@ -6613,19 +6613,19 @@
         <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.174278704279</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443616</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040894</v>
@@ -6640,10 +6640,10 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
         <v>2333.272818966196</v>
@@ -6683,49 +6683,49 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
         <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076838</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951468</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746741</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889758</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.06785023329</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612706</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.90714476723</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755814</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.09100792455</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T32" t="n">
         <v>4017.391409283567</v>
@@ -6734,16 +6734,16 @@
         <v>3795.851627400164</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382062</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437416</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334506</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277781</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M33" t="n">
-        <v>1262.535945437856</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N33" t="n">
-        <v>1840.391293364258</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O33" t="n">
-        <v>2346.796248312508</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q33" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039808</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,37 +6871,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028691</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597208</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352545</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.178257479669</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162839</v>
@@ -6962,25 +6962,25 @@
         <v>4249.020448755813</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>519.5985603334506</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277781</v>
+        <v>808.1559021931406</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.770967407336</v>
+        <v>1357.07436680343</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.626315333738</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O36" t="n">
-        <v>2322.031270281988</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P36" t="n">
         <v>2322.031270281988</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897932</v>
@@ -7096,25 +7096,25 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352544</v>
@@ -7123,10 +7123,10 @@
         <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357084</v>
@@ -7138,7 +7138,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479669</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162853</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511626</v>
@@ -7181,16 +7181,16 @@
         <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.90714476723</v>
@@ -7199,25 +7199,25 @@
         <v>4249.020448755813</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="39">
@@ -7260,13 +7260,13 @@
         <v>973.3971899277781</v>
       </c>
       <c r="M39" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N39" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P39" t="n">
         <v>2346.796248312508</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C40" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511626</v>
@@ -7333,7 +7333,7 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902788</v>
@@ -7342,7 +7342,7 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
@@ -7357,7 +7357,7 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127669</v>
@@ -7375,7 +7375,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076844</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050964</v>
@@ -7427,31 +7427,31 @@
         <v>3311.067850233289</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.90714476723</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
         <v>2476.13298385146</v>
@@ -7482,31 +7482,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177175</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334506</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277781</v>
+        <v>510.5988892561696</v>
       </c>
       <c r="M42" t="n">
-        <v>1428.524759781582</v>
+        <v>1059.517353866459</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781582</v>
+        <v>1637.372701792862</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2143.777656741112</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="Q42" t="n">
         <v>2530.879212293268</v>
@@ -7564,22 +7564,22 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313936</v>
@@ -7588,13 +7588,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127669</v>
@@ -7603,10 +7603,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073043</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K44" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511626</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M45" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781582</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O45" t="n">
         <v>1934.929714729833</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902791</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313936</v>
@@ -7849,7 +7849,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
   </sheetData>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8140,10 +8140,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M4" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N4" t="n">
         <v>37.63776203285606</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>52.84403871183554</v>
+        <v>59.31293716671669</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386707</v>
+        <v>62.83297444582939</v>
       </c>
       <c r="L5" t="n">
-        <v>32.28255003897631</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>23.09193082936515</v>
+        <v>14.021095061502</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.1885984649918</v>
+        <v>59.18859846499311</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804675</v>
+        <v>50.48147365804736</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653512222</v>
+        <v>7.336611653513273</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.81713562156422</v>
+        <v>36.81713562156504</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>50.2932622514172</v>
+        <v>50.29326225141783</v>
       </c>
       <c r="L7" t="n">
-        <v>69.0346712027428</v>
+        <v>69.03467120274142</v>
       </c>
       <c r="M7" t="n">
-        <v>66.19039881325384</v>
+        <v>67.59987304969543</v>
       </c>
       <c r="N7" t="n">
-        <v>58.88507944579419</v>
+        <v>58.88507944579283</v>
       </c>
       <c r="O7" t="n">
-        <v>77.57119039297244</v>
+        <v>42.6867030410102</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486372</v>
+        <v>89.25537822038234</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>33.14412614092826</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>104.8701431593707</v>
       </c>
       <c r="M10" t="n">
-        <v>102.2424199670269</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N10" t="n">
-        <v>1.412844977410188</v>
+        <v>16.73411570767296</v>
       </c>
       <c r="O10" t="n">
         <v>114.4882119352853</v>
       </c>
       <c r="P10" t="n">
-        <v>126.8489985103731</v>
+        <v>130.5930368654883</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>202.1987648390406</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.99090544362082</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>181.5606577533813</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>186.5668494326265</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>169.0975921330775</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534536</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>122.179059375548</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>77.00753794376537</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590284</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.211838205613</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>168.0713429500811</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.85186834697</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>105.6822425796387</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>77.58661093654119</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032423</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442981</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.0974723923561</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134792</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>142.1661753203165</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.337595284244836e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1339469.667947775</v>
+        <v>1339469.667947776</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38654.4266096381</v>
+        <v>38654.42660963808</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
@@ -26323,10 +26323,10 @@
         <v>34099.70989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>38337.15909756553</v>
+        <v>38337.15909756552</v>
       </c>
       <c r="G2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="H2" t="n">
         <v>41052.0884932142</v>
@@ -26335,22 +26335,22 @@
         <v>41052.08849321421</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321411</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321413</v>
       </c>
-      <c r="L2" t="n">
-        <v>41052.08849321412</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321415</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321421</v>
-      </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321416</v>
@@ -26366,19 +26366,19 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263849</v>
+        <v>56271.05156263504</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945414</v>
+        <v>88049.4697294574</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399345</v>
+        <v>728470.1008399348</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963084</v>
+        <v>215052.1096963085</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177124</v>
+        <v>25288.16188177117</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.15074080004</v>
+        <v>8978.150740799447</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390383</v>
+        <v>39911.8767739043</v>
       </c>
       <c r="M3" t="n">
         <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578637</v>
+        <v>56542.2935957864</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329746.2345099984</v>
+        <v>329746.2345099985</v>
       </c>
       <c r="C4" t="n">
-        <v>339958.0729421566</v>
+        <v>339958.0729421577</v>
       </c>
       <c r="D4" t="n">
         <v>312030.0719413565</v>
       </c>
       <c r="E4" t="n">
-        <v>14040.01085717749</v>
+        <v>14040.01085717739</v>
       </c>
       <c r="F4" t="n">
-        <v>14159.48578887601</v>
+        <v>14159.48578887599</v>
       </c>
       <c r="G4" t="n">
-        <v>45229.37087109615</v>
+        <v>45229.37087109609</v>
       </c>
       <c r="H4" t="n">
+        <v>45229.37087109609</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45229.37087109606</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45229.37087109616</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45229.37087109612</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45229.37087109606</v>
+      </c>
+      <c r="M4" t="n">
+        <v>45229.37087109613</v>
+      </c>
+      <c r="N4" t="n">
         <v>45229.37087109608</v>
       </c>
-      <c r="I4" t="n">
-        <v>45229.37087109608</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45229.37087109617</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45229.37087109616</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45229.37087109615</v>
-      </c>
-      <c r="M4" t="n">
-        <v>45229.37087109609</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>45229.37087109612</v>
       </c>
-      <c r="O4" t="n">
-        <v>45229.37087109609</v>
-      </c>
       <c r="P4" t="n">
-        <v>45229.37087109611</v>
+        <v>45229.37087109612</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097144</v>
+        <v>43939.64495097125</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
@@ -26479,10 +26479,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.99600060703</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
         <v>95106.4341021553</v>
@@ -26494,22 +26494,22 @@
         <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215531</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215531</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646277.6317007641</v>
+        <v>-646397.514794943</v>
       </c>
       <c r="C6" t="n">
-        <v>-399116.6809625523</v>
+        <v>-399116.6809625499</v>
       </c>
       <c r="D6" t="n">
-        <v>-408264.5728434327</v>
+        <v>-408264.5728434359</v>
       </c>
       <c r="E6" t="n">
-        <v>-782716.7423614132</v>
+        <v>-783064.3612912195</v>
       </c>
       <c r="F6" t="n">
-        <v>-283323.432388226</v>
+        <v>-283459.1788580085</v>
       </c>
       <c r="G6" t="n">
-        <v>-124571.8783618086</v>
+        <v>-124571.8783618084</v>
       </c>
       <c r="H6" t="n">
-        <v>-99283.71648003708</v>
+        <v>-99283.7164800372</v>
       </c>
       <c r="I6" t="n">
-        <v>-99283.71648003717</v>
+        <v>-99283.71648003711</v>
       </c>
       <c r="J6" t="n">
-        <v>-99283.71648003727</v>
+        <v>-99283.71648003714</v>
       </c>
       <c r="K6" t="n">
-        <v>-108261.8672208374</v>
+        <v>-108261.8672208367</v>
       </c>
       <c r="L6" t="n">
-        <v>-139195.5932539412</v>
+        <v>-139195.5932539415</v>
       </c>
       <c r="M6" t="n">
         <v>-283379.8087494688</v>
@@ -26558,7 +26558,7 @@
         <v>-155826.0100758236</v>
       </c>
       <c r="O6" t="n">
-        <v>-99283.71648003723</v>
+        <v>-99283.71648003726</v>
       </c>
       <c r="P6" t="n">
         <v>-99283.71648003726</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221381</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221381</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221376</v>
+      </c>
+      <c r="J2" t="n">
         <v>31.61020235221391</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221379</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221379</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221393</v>
-      </c>
       <c r="K2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234907</v>
+        <v>375.7370697234877</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.385558334732195e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432639</v>
+        <v>49.41884193432338</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067492</v>
+        <v>81.85424904067793</v>
       </c>
       <c r="E3" t="n">
-        <v>632.1853818291324</v>
+        <v>632.1853818291327</v>
       </c>
       <c r="F3" t="n">
         <v>188.3831700268252</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193713931</v>
+        <v>57.78046193714148</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131903</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866605</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.8844873519631</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193713993</v>
+        <v>57.78046193714192</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131903</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866605</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193713931</v>
+        <v>57.78046193714148</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131903</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866605</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>204.6772809026709</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S2" t="n">
         <v>179.1266962566148</v>
@@ -27433,7 +27433,7 @@
         <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2407063421153</v>
+        <v>69.680048588734</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S3" t="n">
         <v>158.6458343615066</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>330.8328309027854</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>347.0458827202988</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>378.9077493803641</v>
+        <v>378.9077493803663</v>
       </c>
       <c r="H5" t="n">
-        <v>289.1208986218717</v>
+        <v>289.1208986218741</v>
       </c>
       <c r="I5" t="n">
-        <v>152.2423081412004</v>
+        <v>152.2423081412009</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.98512314308647</v>
+        <v>54.98512314308724</v>
       </c>
       <c r="S5" t="n">
-        <v>174.599532998008</v>
+        <v>174.5995329980082</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4836323873893</v>
+        <v>216.4836323873894</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2248128452119</v>
+        <v>216.340325493251</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>325.3907579995174</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135.8069271902583</v>
+        <v>131.6486962979066</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>122.7605931034401</v>
       </c>
       <c r="F6" t="n">
-        <v>110.1847250414209</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>101.6508406424084</v>
+        <v>136.5353279943714</v>
       </c>
       <c r="H6" t="n">
-        <v>104.4300383163915</v>
+        <v>104.4300383163916</v>
       </c>
       <c r="I6" t="n">
-        <v>61.57082155585468</v>
+        <v>61.57082155585491</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.97921189787204</v>
+        <v>15.09472454591164</v>
       </c>
       <c r="S6" t="n">
-        <v>156.6714117615833</v>
+        <v>156.6714117615834</v>
       </c>
       <c r="T6" t="n">
         <v>196.9071591941057</v>
       </c>
       <c r="U6" t="n">
-        <v>191.0037243889566</v>
+        <v>195.1619552813125</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.9474928299743</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3134207081377</v>
       </c>
       <c r="H7" t="n">
-        <v>156.2030601436761</v>
+        <v>125.476803684069</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0744384248762</v>
+        <v>135.0744384248763</v>
       </c>
       <c r="J7" t="n">
-        <v>45.45578353897464</v>
+        <v>45.45578353897502</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.4257457234473</v>
+        <v>29.42574572344775</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090976</v>
+        <v>111.9434032571371</v>
       </c>
       <c r="S7" t="n">
-        <v>181.4823421894955</v>
+        <v>177.3241112971438</v>
       </c>
       <c r="T7" t="n">
         <v>225.0505661041825</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>190.8251680370741</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.7001660001318</v>
+        <v>183.700166000134</v>
       </c>
     </row>
     <row r="8">
@@ -27871,7 +27871,7 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>46.89118423444737</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283107</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,7 +27935,7 @@
         <v>80.04354969921346</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553647</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27980,19 +27980,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>110.8296241170569</v>
+        <v>60.73615356033704</v>
       </c>
       <c r="T9" t="n">
         <v>196.197498299121</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8766285924705</v>
+        <v>183.3051498600881</v>
       </c>
       <c r="V9" t="n">
-        <v>140.135637860323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>159.0300338718173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28026,10 +28026,10 @@
         <v>167.1658146852775</v>
       </c>
       <c r="H10" t="n">
-        <v>62.22575912405279</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I10" t="n">
-        <v>130.6355227555885</v>
+        <v>37.97057346648617</v>
       </c>
       <c r="J10" t="n">
         <v>35.02003772275614</v>
@@ -28056,13 +28056,13 @@
         <v>17.06575411830538</v>
       </c>
       <c r="R10" t="n">
-        <v>140.1909870721275</v>
+        <v>47.5260377830252</v>
       </c>
       <c r="S10" t="n">
-        <v>116.9712789434289</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T10" t="n">
-        <v>224.4198858246887</v>
+        <v>131.7549365355865</v>
       </c>
       <c r="U10" t="n">
         <v>286.2740203743174</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>144.0903680551959</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>125.9197040629925</v>
+        <v>136.9653660182535</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605491</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221704</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221381</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605491</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221702</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221694</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221381</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605491</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221764</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221702</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221376</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605491</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605491</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221264</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P34" t="n">
-        <v>31.6102023522169</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221247</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605491</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221594</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221247</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605491</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221303</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O40" t="n">
-        <v>31.610202352214</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221264</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221355</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221235</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J2" t="n">
         <v>111.3401072796808</v>
@@ -31072,7 +31072,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S2" t="n">
         <v>29.89337332963048</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H3" t="n">
         <v>6.778799411242828</v>
@@ -31151,7 +31151,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S3" t="n">
         <v>13.03733674233122</v>
@@ -31200,7 +31200,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I4" t="n">
         <v>17.69607700863206</v>
@@ -31212,10 +31212,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M4" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N4" t="n">
         <v>90.04778243237713</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782808001</v>
+        <v>1.510500782807989</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193245</v>
+        <v>15.46941614193233</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920554</v>
+        <v>58.23358142920507</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148507</v>
+        <v>128.2018658148497</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511135</v>
+        <v>192.1413639511119</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829739</v>
+        <v>238.368352282972</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792357</v>
+        <v>265.2307205792335</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485539</v>
+        <v>264.2975509485517</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693419</v>
+        <v>254.5023887693398</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937693</v>
+        <v>217.2119006937675</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094577</v>
+        <v>163.1170914094564</v>
       </c>
       <c r="R5" t="n">
-        <v>94.88399479806321</v>
+        <v>94.88399479806245</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823737</v>
+        <v>34.42053658823709</v>
       </c>
       <c r="T5" t="n">
-        <v>6.61221717674203</v>
+        <v>6.612217176741977</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246401</v>
+        <v>0.1208400626246391</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688392063</v>
+        <v>0.8081891688391999</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104968</v>
+        <v>7.805405920104906</v>
       </c>
       <c r="I6" t="n">
-        <v>27.8258112955604</v>
+        <v>27.82581129556018</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300861994</v>
+        <v>76.35615300861933</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208468</v>
+        <v>130.5048273208457</v>
       </c>
       <c r="L6" t="n">
-        <v>173.4388671318372</v>
+        <v>173.438867131835</v>
       </c>
       <c r="M6" t="n">
-        <v>177.0185212739813</v>
+        <v>177.0185212739791</v>
       </c>
       <c r="N6" t="n">
-        <v>144.4624482582653</v>
+        <v>144.4624482582645</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4807317964074</v>
+        <v>177.4807317964052</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549183</v>
+        <v>154.328684354917</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644573</v>
+        <v>103.1646384644565</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477109</v>
+        <v>50.17862225477069</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225455</v>
+        <v>15.01175934225443</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715923</v>
+        <v>3.257569500715896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521096</v>
+        <v>0.05317034005521054</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210487</v>
+        <v>0.6775586503210432</v>
       </c>
       <c r="H7" t="n">
-        <v>6.02411236376351</v>
+        <v>6.024112363763462</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238209</v>
+        <v>20.37603650238193</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769814</v>
+        <v>47.90339657769776</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911818</v>
+        <v>78.71999591911755</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304585</v>
+        <v>100.7344924304577</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498713</v>
+        <v>106.2103982498704</v>
       </c>
       <c r="N7" t="n">
-        <v>103.684952371402</v>
+        <v>103.6849523714012</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083335</v>
+        <v>95.76983541083258</v>
       </c>
       <c r="P7" t="n">
-        <v>81.9476389442839</v>
+        <v>81.94763894428323</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824709</v>
+        <v>56.73629752824663</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807187</v>
+        <v>30.46550076807163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786773</v>
+        <v>11.80799938786763</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099026</v>
+        <v>2.895023324099002</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296633</v>
+        <v>0.03695774456296604</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31613,10 +31613,10 @@
         <v>234.7989832111206</v>
       </c>
       <c r="N9" t="n">
-        <v>224.0066613724356</v>
+        <v>163.7876250036815</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9597963576581</v>
+        <v>234.1788327264122</v>
       </c>
       <c r="P9" t="n">
         <v>187.9491588335306</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I14" t="n">
         <v>198.095511204351</v>
@@ -31999,28 +31999,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171638</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O14" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110797</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115857</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247272</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879671</v>
+        <v>668.1323322018316</v>
       </c>
       <c r="N15" t="n">
-        <v>573.1387203886718</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877215</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T15" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U15" t="n">
         <v>0.1808716798047345</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838147</v>
@@ -32163,16 +32163,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q16" t="n">
         <v>193.0021404636386</v>
@@ -32181,10 +32181,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32312,10 +32312,10 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>156.5246331350991</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
@@ -32330,13 +32330,13 @@
         <v>654.1164009578285</v>
       </c>
       <c r="P18" t="n">
-        <v>521.536411726858</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486998</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>696.5971294879671</v>
@@ -32564,16 +32564,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O21" t="n">
-        <v>650.6667329954514</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P21" t="n">
         <v>524.9860796892352</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>263.7973608852029</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32792,7 +32792,7 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>696.5971294879671</v>
@@ -32801,13 +32801,13 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P24" t="n">
         <v>524.9860796892352</v>
       </c>
       <c r="Q24" t="n">
-        <v>209.0440289417413</v>
+        <v>155.9063265640415</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32938,46 +32938,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R26" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,37 +33017,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155585</v>
+        <v>472.9693813169745</v>
       </c>
       <c r="M27" t="n">
-        <v>696.597129487967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O27" t="n">
-        <v>211.6584993001647</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33099,7 +33099,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33108,13 +33108,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O28" t="n">
         <v>325.7840929246177</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463128</v>
+        <v>442.4241216708494</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879671</v>
@@ -33278,7 +33278,7 @@
         <v>654.1164009578285</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>350.9392912691328</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115857</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>443.9435090247272</v>
@@ -33506,7 +33506,7 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>434.1933829220966</v>
+        <v>151.0727449683532</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160632</v>
@@ -33515,13 +33515,13 @@
         <v>654.1164009578285</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q33" t="n">
         <v>350.9392912691328</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33740,19 +33740,19 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155585</v>
+        <v>430.0264422644096</v>
       </c>
       <c r="M36" t="n">
-        <v>409.178253598339</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q36" t="n">
         <v>350.9392912691328</v>
@@ -33980,16 +33980,16 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>554.7018671605758</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>391.712654391958</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>350.9392912691328</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H41" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I41" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383713</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171638</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O41" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581541</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110797</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H42" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J42" t="n">
         <v>259.7437903115857</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9435090247272</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155585</v>
+        <v>435.565872984504</v>
       </c>
       <c r="M42" t="n">
-        <v>601.858851956164</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877215</v>
       </c>
       <c r="S42" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T42" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U42" t="n">
         <v>0.1808716798047345</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H43" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838147</v>
@@ -34296,16 +34296,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P43" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q43" t="n">
         <v>193.0021404636386</v>
@@ -34314,10 +34314,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34360,46 +34360,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H44" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I44" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869771</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R44" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T44" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,34 +34439,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>548.1235910649142</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R45" t="n">
         <v>170.6946332877214</v>
@@ -34521,7 +34521,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838147</v>
@@ -34530,13 +34530,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O46" t="n">
         <v>325.7840929246177</v>
@@ -34551,10 +34551,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.468898454880106</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="L5" t="n">
-        <v>34.88448735196299</v>
+        <v>2.601937312984745</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765515</v>
+        <v>24.4041773476531</v>
       </c>
       <c r="P5" t="n">
-        <v>9.070835767864891</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="N6" t="n">
-        <v>13.12073617493201</v>
+        <v>13.12073617493115</v>
       </c>
       <c r="O6" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="P6" t="n">
-        <v>20.35427694058805</v>
+        <v>20.3542769405868</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="M7" t="n">
-        <v>33.47501311552006</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="N7" t="n">
-        <v>34.88448735196299</v>
+        <v>34.8844873519608</v>
       </c>
       <c r="O7" t="n">
-        <v>34.88448735196299</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>33.47501311551795</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>92.66494928910228</v>
       </c>
       <c r="N9" t="n">
-        <v>92.66494928910228</v>
+        <v>32.44591292034817</v>
       </c>
       <c r="O9" t="n">
-        <v>31.36355191321363</v>
+        <v>91.58258828196773</v>
       </c>
       <c r="P9" t="n">
         <v>53.97475141920035</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>73.59964020372426</v>
       </c>
       <c r="L10" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="M10" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>15.32127073026277</v>
       </c>
       <c r="O10" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="P10" t="n">
-        <v>88.92091093398707</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306605</v>
+        <v>45.57841661306607</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443194</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701979</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675334</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226396</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451102</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789349</v>
+        <v>78.3942385378935</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N14" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R14" t="n">
         <v>107.185155544024</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.906163644919</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503682</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659488</v>
+        <v>525.9982982798133</v>
       </c>
       <c r="N15" t="n">
-        <v>441.7970083053385</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P15" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.01512932375752</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714178</v>
+        <v>69.59572666714179</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892837</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
         <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372958</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
         <v>396.8414363488768</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>18.68319416074012</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
@@ -35978,13 +35978,13 @@
         <v>511.5201565133841</v>
       </c>
       <c r="P18" t="n">
-        <v>387.5620043125277</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801415009</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659488</v>
@@ -36212,16 +36212,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O21" t="n">
-        <v>508.0704885510069</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P21" t="n">
         <v>391.011672274905</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>123.8155867991814</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.1256801414976</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817381</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
@@ -36297,7 +36297,7 @@
         <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641612</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659488</v>
@@ -36449,13 +36449,13 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P24" t="n">
         <v>391.011672274905</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.0622548557198</v>
+        <v>15.92455247802001</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895136</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010939</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356843</v>
+        <v>334.4150015371003</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O27" t="n">
-        <v>69.06225485572025</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,13 +36841,13 @@
         <v>671.8997542381572</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151674</v>
       </c>
       <c r="O29" t="n">
         <v>635.6527791348813</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q29" t="n">
         <v>332.5762668227518</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9601396664386</v>
+        <v>303.8697418909752</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659488</v>
@@ -36926,7 +36926,7 @@
         <v>511.5201565133841</v>
       </c>
       <c r="P30" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.9575171831112</v>
@@ -37069,7 +37069,7 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721848</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L32" t="n">
         <v>575.1007761169881</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.906163644919</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>306.1020700503682</v>
@@ -37154,7 +37154,7 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>292.0593490000783</v>
+        <v>8.938711046334902</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327299</v>
@@ -37163,13 +37163,13 @@
         <v>511.5201565133841</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q33" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553089</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356843</v>
+        <v>291.4720624845354</v>
       </c>
       <c r="M36" t="n">
-        <v>267.0442196763207</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133841</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q36" t="n">
         <v>210.9575171831112</v>
@@ -37464,22 +37464,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895119</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37628,16 +37628,16 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>412.5678332385575</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>249.1164099475136</v>
       </c>
       <c r="P39" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.9575171831112</v>
@@ -37713,7 +37713,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.063527911685</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N41" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R41" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440219</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>132.906163644919</v>
       </c>
       <c r="K42" t="n">
-        <v>306.1020700503682</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356843</v>
+        <v>297.0114932046299</v>
       </c>
       <c r="M42" t="n">
-        <v>459.7248180341458</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133841</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P42" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375749</v>
+        <v>25.01512932375752</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895099</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116841</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169898</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L45" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>416.7818789815809</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q45" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
